--- a/BD paper/catalogos/waveform_3p1_filtered.xlsx
+++ b/BD paper/catalogos/waveform_3p1_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,26 @@
           <t>Inicio estación más cercana 5</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio estación más cercana 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -590,6 +610,26 @@
           <t>2014-07-26T21:25:25</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2014-07-26T21:25:26</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2014-07-26T21:25:27</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -662,6 +702,26 @@
           <t>2014-06-28T15:47:48</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2014-06-28T15:47:48</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2014-06-28T15:47:49</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -734,6 +794,26 @@
           <t>2014-07-13T19:00:38</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2014-07-13T19:00:41</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2014-07-13T19:00:43</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,6 +886,26 @@
           <t>2014-10-19T08:02:40</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2014-10-19T08:02:42</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2014-10-19T08:02:42</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -878,6 +978,26 @@
           <t>2015-03-13T00:22:09</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2015-03-13T00:22:11</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2015-03-13T00:22:13</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -950,6 +1070,26 @@
           <t>2015-04-13T23:36:49</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2015-04-13T23:36:50</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2015-04-13T23:36:51</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1022,6 +1162,26 @@
           <t>2015-04-29T11:34:27</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2015-04-29T11:34:32</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2015-04-29T11:34:35</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1094,6 +1254,26 @@
           <t>2015-08-12T17:45:38</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>ME06</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2015-08-12T17:45:38</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2015-08-12T17:45:38</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1166,6 +1346,26 @@
           <t>2015-08-27T18:15:18</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2015-08-27T18:15:18</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2015-08-27T18:15:19</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1238,6 +1438,26 @@
           <t>2015-09-18T21:26:26</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2015-09-18T21:26:26</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2015-09-18T21:26:28</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1310,6 +1530,26 @@
           <t>2015-09-19T13:36:06</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:36:06</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2015-09-19T13:36:08</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1382,6 +1622,26 @@
           <t>2016-05-01T01:15:53</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2016-05-01T01:15:55</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2016-05-01T01:15:55</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1454,6 +1714,26 @@
           <t>2014-01-04T08:25:49</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2014-01-04T08:25:50</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2014-01-04T08:25:52</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1526,6 +1806,26 @@
           <t>2014-01-04T18:56:44</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2014-01-04T18:56:44</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2014-01-04T18:56:45</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1598,6 +1898,26 @@
           <t>2014-01-06T12:14:18</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2014-01-06T12:14:18</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2014-01-06T12:14:20</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1670,6 +1990,26 @@
           <t>2014-01-06T15:01:31</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2014-01-06T15:01:31</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2014-01-06T15:01:33</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1742,6 +2082,26 @@
           <t>2014-01-08T18:12:02</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2014-01-08T18:12:02</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2014-01-08T18:12:05</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1814,6 +2174,26 @@
           <t>2014-01-08T20:35:49</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2014-01-08T20:35:50</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2014-01-08T20:35:51</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1886,6 +2266,26 @@
           <t>2014-01-11T13:43:39</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2014-01-11T13:43:40</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2014-01-11T13:43:42</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1958,6 +2358,26 @@
           <t>2014-01-14T10:30:43</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2014-01-14T10:30:48</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2014-01-14T10:30:52</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2030,6 +2450,26 @@
           <t>2014-01-18T15:50:02</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2014-01-18T15:50:04</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2014-01-18T15:50:04</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2102,6 +2542,26 @@
           <t>2014-01-22T17:37:01</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2014-01-22T17:37:01</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2014-01-22T17:37:03</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2174,6 +2634,26 @@
           <t>2014-02-24T23:30:47</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2014-02-24T23:30:47</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2014-02-24T23:30:48</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2246,6 +2726,26 @@
           <t>2014-03-10T08:59:40</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2014-03-10T08:59:40</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2014-03-10T08:59:41</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2318,6 +2818,26 @@
           <t>2014-03-13T03:32:29</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2014-03-13T03:32:30</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2014-03-13T03:32:30</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2390,6 +2910,26 @@
           <t>2014-03-15T02:47:13</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2014-03-15T02:47:16</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2014-03-15T02:47:17</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2462,6 +3002,26 @@
           <t>2014-03-18T16:46:31</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2014-03-18T16:46:33</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2014-03-18T16:46:33</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2534,6 +3094,26 @@
           <t>2014-03-19T12:23:28</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2014-03-19T12:23:29</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>2014-03-19T12:23:31</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2606,6 +3186,26 @@
           <t>2014-03-19T21:15:35</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2014-03-19T21:15:36</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2014-03-19T21:15:37</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2678,6 +3278,26 @@
           <t>2014-03-22T18:52:56</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2014-03-22T18:52:58</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>2014-03-22T18:52:58</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2750,6 +3370,26 @@
           <t>2014-03-25T22:09:04</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2014-03-25T22:09:08</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>2014-03-25T22:09:09</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2822,6 +3462,26 @@
           <t>2014-03-26T15:01:19</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2014-03-26T15:01:20</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>2014-03-26T15:01:21</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2894,6 +3554,26 @@
           <t>2017-04-27T01:55:13</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2017-04-27T01:55:13</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>2017-04-27T01:55:14</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2966,6 +3646,26 @@
           <t>2014-04-01T18:57:53</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2014-04-01T18:57:54</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>2014-04-01T18:57:55</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3038,6 +3738,26 @@
           <t>2014-04-02T04:57:56</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:57:56</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>2014-04-02T04:57:56</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3110,6 +3830,26 @@
           <t>2014-04-02T14:11:01</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2014-04-02T14:11:01</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>2014-04-02T14:11:03</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3182,6 +3922,26 @@
           <t>2014-04-04T07:13:29</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2014-04-04T07:13:31</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>2014-04-04T07:13:32</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3254,6 +4014,26 @@
           <t>2014-04-04T13:41:40</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2014-04-04T13:41:42</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>2014-04-04T13:41:42</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3326,6 +4106,26 @@
           <t>2014-04-05T12:23:20</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2014-04-05T12:23:23</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>2014-04-05T12:23:23</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3398,6 +4198,26 @@
           <t>2014-04-05T13:36:36</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2014-04-05T13:36:38</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>2014-04-05T13:36:38</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3470,6 +4290,26 @@
           <t>2014-04-06T18:01:12</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2014-04-06T18:01:12</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>2014-04-06T18:01:12</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3542,6 +4382,26 @@
           <t>2014-04-06T19:42:36</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2014-04-06T19:42:38</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>2014-04-06T19:42:39</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3614,6 +4474,26 @@
           <t>2014-04-07T19:54:43</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2014-04-07T19:54:45</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>2014-04-07T19:54:46</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3686,6 +4566,26 @@
           <t>2014-04-09T16:25:38</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2014-04-09T16:25:40</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>2014-04-09T16:25:40</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3758,6 +4658,26 @@
           <t>2014-04-13T13:28:26</t>
         </is>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2014-04-13T13:28:27</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>2014-04-13T13:28:27</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3830,6 +4750,26 @@
           <t>2014-04-26T20:37:08</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2014-04-26T20:37:10</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>2014-04-26T20:37:10</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3902,6 +4842,26 @@
           <t>2014-04-28T11:04:03</t>
         </is>
       </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2014-04-28T11:04:03</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>2014-04-28T11:04:04</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3974,6 +4934,26 @@
           <t>2014-04-29T04:06:43</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2014-04-29T04:06:44</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>2014-04-29T04:06:47</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4046,6 +5026,26 @@
           <t>2014-04-30T09:39:55</t>
         </is>
       </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2014-04-30T09:39:56</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>2014-04-30T09:39:57</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4118,6 +5118,26 @@
           <t>2014-04-30T14:39:14</t>
         </is>
       </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2014-04-30T14:39:15</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2014-04-30T14:39:15</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4190,6 +5210,26 @@
           <t>2014-05-05T12:51:45</t>
         </is>
       </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2014-05-05T12:51:46</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>2014-05-05T12:51:46</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4262,6 +5302,26 @@
           <t>2014-05-10T16:40:32</t>
         </is>
       </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2014-05-10T16:40:34</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>2014-05-10T16:40:39</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4334,6 +5394,26 @@
           <t>2014-05-15T17:45:54</t>
         </is>
       </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2014-05-15T17:45:54</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>2014-05-15T17:45:56</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4406,6 +5486,26 @@
           <t>2014-06-09T13:57:38</t>
         </is>
       </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2014-06-09T13:57:41</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>2014-06-09T13:57:42</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4478,6 +5578,26 @@
           <t>2014-06-10T06:14:40</t>
         </is>
       </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2014-06-10T06:14:41</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>2014-06-10T06:14:42</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4550,6 +5670,26 @@
           <t>2014-06-14T16:11:37</t>
         </is>
       </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2014-06-14T16:11:37</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>2014-06-14T16:11:41</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4622,6 +5762,26 @@
           <t>2014-08-27T18:13:50</t>
         </is>
       </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2014-08-27T18:13:51</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>2014-08-27T18:13:51</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4694,6 +5854,26 @@
           <t>2014-09-01T20:41:43</t>
         </is>
       </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2014-09-01T20:41:44</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>2014-09-01T20:41:44</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4766,6 +5946,26 @@
           <t>2014-09-12T16:14:39</t>
         </is>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2014-09-12T16:14:40</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>2014-09-12T16:14:41</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4838,6 +6038,26 @@
           <t>2014-10-19T17:56:26</t>
         </is>
       </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2014-10-19T17:56:28</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>2014-10-19T17:56:30</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4910,6 +6130,26 @@
           <t>2014-12-08T23:16:35</t>
         </is>
       </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2014-12-08T23:16:37</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>2014-12-08T23:16:38</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4982,6 +6222,26 @@
           <t>2015-01-02T01:02:27</t>
         </is>
       </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2015-01-02T01:02:28</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>2015-01-02T01:02:29</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5054,6 +6314,26 @@
           <t>2015-01-21T17:52:09</t>
         </is>
       </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2015-01-21T17:52:12</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>2015-01-21T17:52:20</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5126,6 +6406,26 @@
           <t>2015-03-09T06:17:25</t>
         </is>
       </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>PB04</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2015-03-09T06:17:25</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>2015-03-09T06:17:31</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5198,6 +6498,26 @@
           <t>2015-03-13T00:44:13</t>
         </is>
       </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2015-03-13T00:44:14</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>2015-03-13T00:44:19</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5270,6 +6590,26 @@
           <t>2015-05-29T13:50:27</t>
         </is>
       </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2015-05-29T13:50:28</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>2015-05-29T13:50:31</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5342,6 +6682,26 @@
           <t>2015-06-24T22:23:24</t>
         </is>
       </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2015-06-24T22:23:24</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>2015-06-24T22:23:27</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5414,6 +6774,26 @@
           <t>2015-07-18T21:22:50</t>
         </is>
       </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>PB13</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>PB16</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2015-07-18T21:22:51</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>2015-07-18T21:22:51</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5486,6 +6866,26 @@
           <t>2015-07-19T09:18:38</t>
         </is>
       </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2015-07-19T09:18:38</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>2015-07-19T09:18:40</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5558,6 +6958,26 @@
           <t>2015-08-01T10:19:19</t>
         </is>
       </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2015-08-01T10:19:20</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>2015-08-01T10:19:24</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5630,6 +7050,26 @@
           <t>2015-08-23T23:26:14</t>
         </is>
       </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2015-08-23T23:26:15</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>2015-08-23T23:26:19</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5702,6 +7142,26 @@
           <t>2015-08-24T04:13:33</t>
         </is>
       </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2015-08-24T04:13:34</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>2015-08-24T04:13:38</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5774,6 +7234,26 @@
           <t>2015-08-24T23:56:46</t>
         </is>
       </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2015-08-24T23:56:46</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>2015-08-24T23:56:51</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5846,6 +7326,26 @@
           <t>2020-06-23T20:19:30</t>
         </is>
       </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2020-06-23T20:19:30</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>2020-06-23T20:19:33</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5918,6 +7418,26 @@
           <t>2020-10-06T11:32:56</t>
         </is>
       </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2020-10-06T11:32:56</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>2020-10-06T11:32:57</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5990,6 +7510,26 @@
           <t>2020-10-11T07:06:22</t>
         </is>
       </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2020-10-11T07:06:25</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2020-10-11T07:06:26</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6060,6 +7600,26 @@
       <c r="P78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:44</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>CO01</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2020-11-18T05:31:48</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2020-11-18T05:31:51</t>
         </is>
       </c>
     </row>

--- a/BD paper/catalogos/waveform_3p1_filtered.xlsx
+++ b/BD paper/catalogos/waveform_3p1_filtered.xlsx
@@ -495,37 +495,37 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Estación más cercana 6</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Estación más cercana 7</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Inicio estación más cercana 1</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 4</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Inicio estación más cercana 5</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 6</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Estación más cercana 7</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -587,37 +587,37 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2014-07-26T21:25:18</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-07-26T21:25:20</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2014-07-26T21:25:20</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2014-07-26T21:25:23</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2014-07-26T21:25:25</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>PB10</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -679,37 +679,37 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-06-28T15:47:42</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-06-28T15:47:43</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2014-06-28T15:47:46</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2014-06-28T15:47:47</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2014-06-28T15:47:48</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -771,37 +771,37 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-07-13T19:00:28</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-07-13T19:00:34</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2014-07-13T19:00:35</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2014-07-13T19:00:37</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2014-07-13T19:00:38</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>PB05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -863,37 +863,37 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>2014-10-19T08:02:35</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-10-19T08:02:35</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2014-10-19T08:02:37</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2014-10-19T08:02:39</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2014-10-19T08:02:40</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -955,37 +955,37 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>2015-03-13T00:22:05</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2015-03-13T00:22:06</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2015-03-13T00:22:08</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2015-03-13T00:22:09</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2015-03-13T00:22:09</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>MT02</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>CO04</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -1047,37 +1047,37 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2015-04-13T23:36:39</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2015-04-13T23:36:46</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>2015-04-13T23:36:48</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>2015-04-13T23:36:49</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2015-04-13T23:36:49</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1139,37 +1139,37 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2015-04-29T11:34:20</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2015-04-29T11:34:25</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>2015-04-29T11:34:26</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>2015-04-29T11:34:27</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2015-04-29T11:34:27</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1231,37 +1231,37 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>ME06</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2015-08-12T17:45:33</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2015-08-12T17:45:37</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>2015-08-12T17:45:38</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>2015-08-12T17:45:38</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2015-08-12T17:45:38</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>ME06</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>MT07</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1323,37 +1323,37 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>2015-08-27T18:15:06</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2015-08-27T18:15:07</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>2015-08-27T18:15:11</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>2015-08-27T18:15:17</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2015-08-27T18:15:18</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1415,37 +1415,37 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>2015-09-18T21:26:20</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2015-09-18T21:26:23</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>2015-09-18T21:26:24</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>2015-09-18T21:26:25</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2015-09-18T21:26:26</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1507,37 +1507,37 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>2015-09-19T13:36:00</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2015-09-19T13:36:02</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>2015-09-19T13:36:05</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>2015-09-19T13:36:05</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2015-09-19T13:36:06</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1599,37 +1599,37 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>CO04</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2016-05-01T01:15:49</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2016-05-01T01:15:49</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>2016-05-01T01:15:51</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>2016-05-01T01:15:53</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2016-05-01T01:15:53</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>CO04</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1691,37 +1691,37 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2014-01-04T08:25:43</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-01-04T08:25:43</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2014-01-04T08:25:45</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>2014-01-04T08:25:47</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2014-01-04T08:25:49</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1783,37 +1783,37 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
           <t>2014-01-04T18:56:36</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-01-04T18:56:39</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>2014-01-04T18:56:41</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>2014-01-04T18:56:42</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2014-01-04T18:56:44</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1875,37 +1875,37 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-01-06T12:14:11</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-01-06T12:14:11</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>2014-01-06T12:14:13</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>2014-01-06T12:14:15</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2014-01-06T12:14:18</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1967,37 +1967,37 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-01-06T15:01:24</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-01-06T15:01:24</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2014-01-06T15:01:26</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>2014-01-06T15:01:29</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2014-01-06T15:01:31</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2059,37 +2059,37 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
           <t>2014-01-08T18:11:55</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-01-08T18:11:55</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>2014-01-08T18:11:57</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>2014-01-08T18:12:00</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2014-01-08T18:12:02</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2151,37 +2151,37 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>2014-01-08T20:35:42</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-01-08T20:35:42</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>2014-01-08T20:35:45</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>2014-01-08T20:35:47</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2014-01-08T20:35:49</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2243,37 +2243,37 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-01-11T13:43:32</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-01-11T13:43:33</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>2014-01-11T13:43:35</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2014-01-11T13:43:37</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2014-01-11T13:43:39</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2335,37 +2335,37 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-01-14T10:30:37</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-01-14T10:30:42</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>2014-01-14T10:30:42</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>2014-01-14T10:30:43</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2014-01-14T10:30:43</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2427,37 +2427,37 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>2014-01-18T15:49:55</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-01-18T15:49:57</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>2014-01-18T15:49:59</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>2014-01-18T15:50:01</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2014-01-18T15:50:02</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2519,37 +2519,37 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-01-22T17:36:54</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-01-22T17:36:54</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>2014-01-22T17:36:57</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>2014-01-22T17:36:59</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2014-01-22T17:37:01</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2611,37 +2611,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-02-24T23:30:40</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-02-24T23:30:43</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>2014-02-24T23:30:46</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>2014-02-24T23:30:47</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2014-02-24T23:30:47</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2703,37 +2703,37 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
           <t>2014-03-10T08:59:33</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-03-10T08:59:35</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>2014-03-10T08:59:36</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>2014-03-10T08:59:39</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2014-03-10T08:59:40</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>PB06</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2795,37 +2795,37 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-03-13T03:32:23</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-03-13T03:32:25</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>2014-03-13T03:32:26</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>2014-03-13T03:32:29</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2014-03-13T03:32:29</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>PX05</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2887,37 +2887,37 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-03-15T02:47:09</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-03-15T02:47:10</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>2014-03-15T02:47:11</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>2014-03-15T02:47:13</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2014-03-15T02:47:13</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2979,37 +2979,37 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2014-03-18T16:46:27</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2014-03-18T16:46:28</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>2014-03-18T16:46:29</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>2014-03-18T16:46:30</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2014-03-18T16:46:31</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3071,37 +3071,37 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
           <t>2014-03-19T12:23:23</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2014-03-19T12:23:25</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>2014-03-19T12:23:27</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>2014-03-19T12:23:28</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2014-03-19T12:23:28</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3163,37 +3163,37 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2014-03-19T21:15:30</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2014-03-19T21:15:31</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>2014-03-19T21:15:32</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>2014-03-19T21:15:33</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2014-03-19T21:15:35</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3255,37 +3255,37 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
           <t>2014-03-22T18:52:52</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2014-03-22T18:52:53</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>2014-03-22T18:52:53</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>2014-03-22T18:52:55</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2014-03-22T18:52:56</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3347,37 +3347,37 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>AC02</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>GO02</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
           <t>2014-03-25T22:08:50</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2014-03-25T22:08:56</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>2014-03-25T22:08:57</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>2014-03-25T22:09:00</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2014-03-25T22:09:04</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>AC02</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>GO02</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3439,37 +3439,37 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-03-26T15:01:14</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-03-26T15:01:17</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>2014-03-26T15:01:17</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>2014-03-26T15:01:19</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2014-03-26T15:01:19</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>AP01</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3531,37 +3531,37 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>VA06</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2017-04-27T01:55:06</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2017-04-27T01:55:06</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>2017-04-27T01:55:12</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>2017-04-27T01:55:12</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2017-04-27T01:55:13</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>VA06</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3623,37 +3623,37 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
           <t>2014-04-01T18:57:48</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2014-04-01T18:57:50</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>2014-04-01T18:57:51</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>2014-04-01T18:57:53</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2014-04-01T18:57:53</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3715,37 +3715,37 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2014-04-02T04:57:51</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2014-04-02T04:57:51</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>2014-04-02T04:57:53</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>2014-04-02T04:57:54</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2014-04-02T04:57:56</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3807,37 +3807,37 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2014-04-02T14:10:54</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2014-04-02T14:10:54</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2014-04-02T14:10:56</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>2014-04-02T14:10:59</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2014-04-02T14:11:01</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2014-04-04T07:13:24</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2014-04-04T07:13:25</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>2014-04-04T07:13:27</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>2014-04-04T07:13:28</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2014-04-04T07:13:29</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3991,37 +3991,37 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
           <t>2014-04-04T13:41:31</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2014-04-04T13:41:31</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>2014-04-04T13:41:35</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>2014-04-04T13:41:38</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2014-04-04T13:41:40</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>AP01</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>PB12</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -4083,37 +4083,37 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2014-04-05T12:23:16</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2014-04-05T12:23:18</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>2014-04-05T12:23:18</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>2014-04-05T12:23:19</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2014-04-05T12:23:20</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4175,37 +4175,37 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2014-04-05T13:36:32</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2014-04-05T13:36:33</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>2014-04-05T13:36:34</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>2014-04-05T13:36:35</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2014-04-05T13:36:36</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4267,37 +4267,37 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2014-04-06T18:01:05</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2014-04-06T18:01:06</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>2014-04-06T18:01:06</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>2014-04-06T18:01:09</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2014-04-06T18:01:12</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4359,37 +4359,37 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2014-04-06T19:42:32</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2014-04-06T19:42:34</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>2014-04-06T19:42:36</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>2014-04-06T19:42:36</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>2014-04-06T19:42:36</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4451,37 +4451,37 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
           <t>2014-04-07T19:54:39</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2014-04-07T19:54:40</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>2014-04-07T19:54:41</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>2014-04-07T19:54:42</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>2014-04-07T19:54:43</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4543,37 +4543,37 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2014-04-09T16:25:34</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2014-04-09T16:25:35</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2014-04-09T16:25:35</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>2014-04-09T16:25:37</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>2014-04-09T16:25:38</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4635,37 +4635,37 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2014-04-13T13:28:21</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2014-04-13T13:28:22</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2014-04-13T13:28:23</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>2014-04-13T13:28:25</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2014-04-13T13:28:26</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4727,37 +4727,37 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2014-04-26T20:37:03</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2014-04-26T20:37:04</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>2014-04-26T20:37:07</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>2014-04-26T20:37:07</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2014-04-26T20:37:08</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>PX02</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4819,37 +4819,37 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2014-04-28T11:03:56</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2014-04-28T11:03:57</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>2014-04-28T11:03:57</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2014-04-28T11:04:00</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2014-04-28T11:04:03</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>PB02</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4911,37 +4911,37 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2014-04-29T04:06:34</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2014-04-29T04:06:40</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>2014-04-29T04:06:42</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>2014-04-29T04:06:43</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>2014-04-29T04:06:43</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -5003,37 +5003,37 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2014-04-30T09:39:51</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2014-04-30T09:39:52</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>2014-04-30T09:39:54</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>2014-04-30T09:39:55</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2014-04-30T09:39:55</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>PATCX</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -5095,37 +5095,37 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2014-04-30T14:39:09</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2014-04-30T14:39:10</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>2014-04-30T14:39:12</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>2014-04-30T14:39:13</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>2014-04-30T14:39:14</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -5187,37 +5187,37 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2014-05-05T12:51:39</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2014-05-05T12:51:40</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>2014-05-05T12:51:40</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>2014-05-05T12:51:43</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2014-05-05T12:51:45</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -5279,37 +5279,37 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>AC07</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2014-05-10T16:40:25</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2014-05-10T16:40:27</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>2014-05-10T16:40:28</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>2014-05-10T16:40:29</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>2014-05-10T16:40:32</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>AC07</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -5371,37 +5371,37 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2014-05-15T17:45:47</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2014-05-15T17:45:47</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>2014-05-15T17:45:48</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>2014-05-15T17:45:53</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>2014-05-15T17:45:54</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5463,37 +5463,37 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2014-06-09T13:57:35</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2014-06-09T13:57:35</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>2014-06-09T13:57:37</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>2014-06-09T13:57:38</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>2014-06-09T13:57:38</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>TA02</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -5555,37 +5555,37 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2014-06-10T06:14:36</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2014-06-10T06:14:37</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>2014-06-10T06:14:38</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>2014-06-10T06:14:39</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2014-06-10T06:14:40</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>PB11</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5647,37 +5647,37 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2014-06-14T16:11:33</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2014-06-14T16:11:34</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>2014-06-14T16:11:34</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>2014-06-14T16:11:34</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>2014-06-14T16:11:37</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5739,37 +5739,37 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
           <t>2014-08-27T18:13:42</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2014-08-27T18:13:47</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>2014-08-27T18:13:47</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>2014-08-27T18:13:49</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2014-08-27T18:13:50</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>MNMCX</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5831,37 +5831,37 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2014-09-01T20:41:37</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2014-09-01T20:41:39</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>2014-09-01T20:41:40</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>2014-09-01T20:41:40</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>2014-09-01T20:41:43</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>PX03</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5923,37 +5923,37 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
           <t>2014-09-12T16:14:35</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2014-09-12T16:14:35</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>2014-09-12T16:14:36</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>2014-09-12T16:14:39</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>2014-09-12T16:14:39</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>V25A</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -6015,37 +6015,37 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>PX05</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2014-10-19T17:56:21</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2014-10-19T17:56:23</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>2014-10-19T17:56:25</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>2014-10-19T17:56:26</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>2014-10-19T17:56:26</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>TA02</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -6107,37 +6107,37 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>2014-12-08T23:16:24</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2014-12-08T23:16:34</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>2014-12-08T23:16:34</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>2014-12-08T23:16:35</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>2014-12-08T23:16:35</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6199,37 +6199,37 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>2015-01-02T01:02:21</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2015-01-02T01:02:22</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>2015-01-02T01:02:23</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>2015-01-02T01:02:26</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>2015-01-02T01:02:27</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>TA02</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6291,37 +6291,37 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>AC05</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2015-01-21T17:52:05</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2015-01-21T17:52:06</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>2015-01-21T17:52:06</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>2015-01-21T17:52:07</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>2015-01-21T17:52:09</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>CO10</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6383,37 +6383,37 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>PB04</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2015-03-09T06:17:19</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2015-03-09T06:17:21</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>2015-03-09T06:17:23</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>2015-03-09T06:17:24</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>2015-03-09T06:17:25</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>PB04</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -6475,37 +6475,37 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>PB15</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>2015-03-13T00:44:06</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2015-03-13T00:44:10</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>2015-03-13T00:44:11</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>2015-03-13T00:44:13</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>2015-03-13T00:44:13</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>PB15</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>PB03</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6567,37 +6567,37 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
           <t>2015-05-29T13:50:18</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2015-05-29T13:50:24</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>2015-05-29T13:50:25</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>2015-05-29T13:50:27</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>2015-05-29T13:50:27</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
@@ -6659,37 +6659,37 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>CO03</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2015-06-24T22:23:23</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2015-06-24T22:23:23</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>2015-06-24T22:23:23</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>2015-06-24T22:23:24</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>2015-06-24T22:23:24</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>CO03</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6751,37 +6751,37 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>PB13</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PB16</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>2015-07-18T21:22:40</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2015-07-18T21:22:41</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>2015-07-18T21:22:42</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>2015-07-18T21:22:49</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>2015-07-18T21:22:50</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>PB13</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>PB16</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6843,37 +6843,37 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
           <t>2015-07-19T09:18:31</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2015-07-19T09:18:32</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>2015-07-19T09:18:33</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>2015-07-19T09:18:35</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>2015-07-19T09:18:38</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>ROC1</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -6935,37 +6935,37 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2015-08-01T10:19:09</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2015-08-01T10:19:17</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>2015-08-01T10:19:19</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>2015-08-01T10:19:19</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>2015-08-01T10:19:19</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>GO04</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -7027,37 +7027,37 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>2015-08-23T23:26:08</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2015-08-23T23:26:09</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>2015-08-23T23:26:09</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>2015-08-23T23:26:14</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>2015-08-23T23:26:14</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -7119,37 +7119,37 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>2015-08-24T04:13:27</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2015-08-24T04:13:28</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>2015-08-24T04:13:28</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>2015-08-24T04:13:33</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>2015-08-24T04:13:33</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7211,37 +7211,37 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>CO06</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>2015-08-24T23:56:40</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2015-08-24T23:56:41</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>2015-08-24T23:56:41</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>2015-08-24T23:56:45</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>2015-08-24T23:56:46</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>CO06</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -7303,37 +7303,37 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>MT02</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2020-06-23T20:19:24</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2020-06-23T20:19:27</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>2020-06-23T20:19:28</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>2020-06-23T20:19:30</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>2020-06-23T20:19:30</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>MT02</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -7395,37 +7395,37 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>PB01</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>2020-10-06T11:32:48</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2020-10-06T11:32:50</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>2020-10-06T11:32:55</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>2020-10-06T11:32:55</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>2020-10-06T11:32:56</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>PB01</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7487,37 +7487,37 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>GO01</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>2020-10-11T07:06:17</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2020-10-11T07:06:17</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>2020-10-11T07:06:20</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>2020-10-11T07:06:22</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>2020-10-11T07:06:22</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>AP01</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>GO01</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7579,37 +7579,37 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>CO01</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>2020-11-18T05:31:40</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:41</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:42</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:44</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:44</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>CO01</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">

--- a/BD paper/catalogos/waveform_3p1_filtered.xlsx
+++ b/BD paper/catalogos/waveform_3p1_filtered.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1461,55 +1461,55 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5163072</v>
+        <v>5183307</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>42266.56659722222</v>
+        <v>42491.05258101852</v>
       </c>
       <c r="C12" t="n">
-        <v>-32.3954</v>
+        <v>-32.5969</v>
       </c>
       <c r="D12" t="n">
-        <v>-71.85080000000001</v>
+        <v>-71.82599999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>VA01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>VA06</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VA01</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>V25A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ROC1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MT07</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>CO04</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>V25A</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ROC1</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>MT07</t>
-        </is>
-      </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>MT02</t>
@@ -1517,335 +1517,335 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:00</t>
+          <t>2016-05-01T01:15:49</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:02</t>
+          <t>2016-05-01T01:15:49</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:05</t>
+          <t>2016-05-01T01:15:51</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:05</t>
+          <t>2016-05-01T01:15:53</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:06</t>
+          <t>2016-05-01T01:15:53</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:06</t>
+          <t>2016-05-01T01:15:55</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2015-09-19T13:36:08</t>
+          <t>2016-05-01T01:15:55</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5183307</v>
+        <v>9960503</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>42491.05258101852</v>
+        <v>41643.35109953704</v>
       </c>
       <c r="C13" t="n">
-        <v>-32.5969</v>
+        <v>-20.6564</v>
       </c>
       <c r="D13" t="n">
-        <v>-71.82599999999999</v>
+        <v>-70.8026</v>
       </c>
       <c r="E13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:49</t>
+          <t>2014-01-04T08:25:43</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:49</t>
+          <t>2014-01-04T08:25:43</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:51</t>
+          <t>2014-01-04T08:25:45</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:53</t>
+          <t>2014-01-04T08:25:47</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:53</t>
+          <t>2014-01-04T08:25:49</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:55</t>
+          <t>2014-01-04T08:25:50</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2016-05-01T01:15:55</t>
+          <t>2014-01-04T08:25:52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9960503</v>
+        <v>9960961</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>41643.35109953704</v>
+        <v>41643.78924768518</v>
       </c>
       <c r="C14" t="n">
-        <v>-20.6564</v>
+        <v>-22.7676</v>
       </c>
       <c r="D14" t="n">
-        <v>-70.8026</v>
+        <v>-70.60890000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>PB05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PB04</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>PX05</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>PB03</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:43</t>
+          <t>2014-01-04T18:56:36</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:43</t>
+          <t>2014-01-04T18:56:39</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:45</t>
+          <t>2014-01-04T18:56:41</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:47</t>
+          <t>2014-01-04T18:56:42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:49</t>
+          <t>2014-01-04T18:56:44</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:50</t>
+          <t>2014-01-04T18:56:44</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2014-01-04T08:25:52</t>
+          <t>2014-01-04T18:56:45</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9960961</v>
+        <v>9962798</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>41643.78924768518</v>
+        <v>41645.50976851852</v>
       </c>
       <c r="C15" t="n">
-        <v>-22.7676</v>
+        <v>-20.6451</v>
       </c>
       <c r="D15" t="n">
-        <v>-70.60890000000001</v>
+        <v>-70.7281</v>
       </c>
       <c r="E15" t="n">
         <v>3.6</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PB06</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PB05</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PB04</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>PB06</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>PX05</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>PB03</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:36</t>
+          <t>2014-01-06T12:14:11</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:39</t>
+          <t>2014-01-06T12:14:11</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:41</t>
+          <t>2014-01-06T12:14:13</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:42</t>
+          <t>2014-01-06T12:14:15</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:44</t>
+          <t>2014-01-06T12:14:18</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:44</t>
+          <t>2014-01-06T12:14:18</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>2014-01-04T18:56:45</t>
+          <t>2014-01-06T12:14:20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9962798</v>
+        <v>9962957</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>41645.50976851852</v>
+        <v>41645.62590277778</v>
       </c>
       <c r="C16" t="n">
-        <v>-20.6451</v>
+        <v>-20.645</v>
       </c>
       <c r="D16" t="n">
-        <v>-70.7281</v>
+        <v>-70.648</v>
       </c>
       <c r="E16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1885,55 +1885,55 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:11</t>
+          <t>2014-01-06T15:01:24</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:11</t>
+          <t>2014-01-06T15:01:24</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:13</t>
+          <t>2014-01-06T15:01:26</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:15</t>
+          <t>2014-01-06T15:01:29</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:18</t>
+          <t>2014-01-06T15:01:31</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:18</t>
+          <t>2014-01-06T15:01:31</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>2014-01-06T12:14:20</t>
+          <t>2014-01-06T15:01:33</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9962957</v>
+        <v>9965541</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>41645.62590277778</v>
+        <v>41647.75821759259</v>
       </c>
       <c r="C17" t="n">
-        <v>-20.645</v>
+        <v>-20.6593</v>
       </c>
       <c r="D17" t="n">
-        <v>-70.648</v>
+        <v>-70.5778</v>
       </c>
       <c r="E17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1977,59 +1977,59 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:24</t>
+          <t>2014-01-08T18:11:55</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:24</t>
+          <t>2014-01-08T18:11:55</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:26</t>
+          <t>2014-01-08T18:11:57</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:29</t>
+          <t>2014-01-08T18:12:00</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:31</t>
+          <t>2014-01-08T18:12:02</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:31</t>
+          <t>2014-01-08T18:12:02</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2014-01-06T15:01:33</t>
+          <t>2014-01-08T18:12:05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9965541</v>
+        <v>9965656</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>41647.75821759259</v>
+        <v>41647.85806712963</v>
       </c>
       <c r="C18" t="n">
-        <v>-20.6593</v>
+        <v>-20.726</v>
       </c>
       <c r="D18" t="n">
-        <v>-70.5778</v>
+        <v>-70.583</v>
       </c>
       <c r="E18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2069,59 +2069,59 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:11:55</t>
+          <t>2014-01-08T20:35:42</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:11:55</t>
+          <t>2014-01-08T20:35:42</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:11:57</t>
+          <t>2014-01-08T20:35:45</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:12:00</t>
+          <t>2014-01-08T20:35:47</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:12:02</t>
+          <t>2014-01-08T20:35:49</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:12:02</t>
+          <t>2014-01-08T20:35:50</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2014-01-08T18:12:05</t>
+          <t>2014-01-08T20:35:51</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9965656</v>
+        <v>9968533</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>41647.85806712963</v>
+        <v>41650.5718287037</v>
       </c>
       <c r="C19" t="n">
-        <v>-20.726</v>
+        <v>-20.6803</v>
       </c>
       <c r="D19" t="n">
-        <v>-70.583</v>
+        <v>-70.6784</v>
       </c>
       <c r="E19" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2161,239 +2161,239 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:42</t>
+          <t>2014-01-11T13:43:32</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:42</t>
+          <t>2014-01-11T13:43:33</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:45</t>
+          <t>2014-01-11T13:43:35</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:47</t>
+          <t>2014-01-11T13:43:37</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:49</t>
+          <t>2014-01-11T13:43:39</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:50</t>
+          <t>2014-01-11T13:43:40</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>2014-01-08T20:35:51</t>
+          <t>2014-01-11T13:43:42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9968533</v>
+        <v>9971746</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>41650.5718287037</v>
+        <v>41653.43788194445</v>
       </c>
       <c r="C20" t="n">
-        <v>-20.6803</v>
+        <v>-27.877</v>
       </c>
       <c r="D20" t="n">
-        <v>-70.6784</v>
+        <v>-70.94799999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:32</t>
+          <t>2014-01-14T10:30:37</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:33</t>
+          <t>2014-01-14T10:30:42</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:35</t>
+          <t>2014-01-14T10:30:42</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:37</t>
+          <t>2014-01-14T10:30:43</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:39</t>
+          <t>2014-01-14T10:30:43</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:40</t>
+          <t>2014-01-14T10:30:48</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>2014-01-11T13:43:42</t>
+          <t>2014-01-14T10:30:52</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9971746</v>
+        <v>9976586</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>41653.43788194445</v>
+        <v>41657.65966435185</v>
       </c>
       <c r="C21" t="n">
-        <v>-27.877</v>
+        <v>-20.283</v>
       </c>
       <c r="D21" t="n">
-        <v>-70.94799999999999</v>
+        <v>-70.101</v>
       </c>
       <c r="E21" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:37</t>
+          <t>2014-01-18T15:49:55</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:42</t>
+          <t>2014-01-18T15:49:57</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:42</t>
+          <t>2014-01-18T15:49:59</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:43</t>
+          <t>2014-01-18T15:50:01</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:43</t>
+          <t>2014-01-18T15:50:02</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:48</t>
+          <t>2014-01-18T15:50:04</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>2014-01-14T10:30:52</t>
+          <t>2014-01-18T15:50:04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9976586</v>
+        <v>9981324</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>41657.65966435185</v>
+        <v>41661.73391203704</v>
       </c>
       <c r="C22" t="n">
-        <v>-20.283</v>
+        <v>-20.6927</v>
       </c>
       <c r="D22" t="n">
-        <v>-70.101</v>
+        <v>-70.47750000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2402,90 +2402,90 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>HMBCX</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>PX03</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:49:55</t>
+          <t>2014-01-22T17:36:54</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:49:57</t>
+          <t>2014-01-22T17:36:54</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:49:59</t>
+          <t>2014-01-22T17:36:57</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:50:01</t>
+          <t>2014-01-22T17:36:59</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:50:02</t>
+          <t>2014-01-22T17:37:01</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:50:04</t>
+          <t>2014-01-22T17:37:01</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>2014-01-18T15:50:04</t>
+          <t>2014-01-22T17:37:03</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9981324</v>
+        <v>10034413</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>41661.73391203704</v>
+        <v>41694.97958333333</v>
       </c>
       <c r="C23" t="n">
-        <v>-20.6927</v>
+        <v>-19.4806</v>
       </c>
       <c r="D23" t="n">
-        <v>-70.47750000000001</v>
+        <v>-70.4213</v>
       </c>
       <c r="E23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2494,366 +2494,366 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>MNMCX</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>HMBCX</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>PB02</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:36:54</t>
+          <t>2014-02-24T23:30:40</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:36:54</t>
+          <t>2014-02-24T23:30:43</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:36:57</t>
+          <t>2014-02-24T23:30:46</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:36:59</t>
+          <t>2014-02-24T23:30:47</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:37:01</t>
+          <t>2014-02-24T23:30:47</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:37:01</t>
+          <t>2014-02-24T23:30:47</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>2014-01-22T17:37:03</t>
+          <t>2014-02-24T23:30:48</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10034413</v>
+        <v>10061334</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>41694.97958333333</v>
+        <v>41708.37459490741</v>
       </c>
       <c r="C24" t="n">
-        <v>-19.4806</v>
+        <v>-22.3893</v>
       </c>
       <c r="D24" t="n">
-        <v>-70.4213</v>
+        <v>-70.8314</v>
       </c>
       <c r="E24" t="n">
         <v>3.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>PB04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>PB05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>PX05</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>PB03</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>PB07</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:40</t>
+          <t>2014-03-10T08:59:33</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:43</t>
+          <t>2014-03-10T08:59:35</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:46</t>
+          <t>2014-03-10T08:59:36</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:47</t>
+          <t>2014-03-10T08:59:39</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:47</t>
+          <t>2014-03-10T08:59:40</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:47</t>
+          <t>2014-03-10T08:59:40</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>2014-02-24T23:30:48</t>
+          <t>2014-03-10T08:59:41</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10061334</v>
+        <v>10064283</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>41708.37459490741</v>
+        <v>41711.14746527778</v>
       </c>
       <c r="C25" t="n">
-        <v>-22.3893</v>
+        <v>-21.325</v>
       </c>
       <c r="D25" t="n">
-        <v>-70.8314</v>
+        <v>-69.709</v>
       </c>
       <c r="E25" t="n">
         <v>3.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PB06</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>PB04</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PB05</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
+          <t>PB07</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PB09</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>PB03</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>PX05</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:33</t>
+          <t>2014-03-13T03:32:23</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:35</t>
+          <t>2014-03-13T03:32:25</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:36</t>
+          <t>2014-03-13T03:32:26</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:39</t>
+          <t>2014-03-13T03:32:29</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:40</t>
+          <t>2014-03-13T03:32:29</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:40</t>
+          <t>2014-03-13T03:32:30</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>2014-03-10T08:59:41</t>
+          <t>2014-03-13T03:32:30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10064283</v>
+        <v>10066584</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>41711.14746527778</v>
+        <v>41713.11592592593</v>
       </c>
       <c r="C26" t="n">
-        <v>-21.325</v>
+        <v>-20.3457</v>
       </c>
       <c r="D26" t="n">
-        <v>-69.709</v>
+        <v>-71.22880000000001</v>
       </c>
       <c r="E26" t="n">
         <v>3.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>PB02</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>PB09</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>PB03</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:23</t>
+          <t>2014-03-15T02:47:09</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:25</t>
+          <t>2014-03-15T02:47:10</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:26</t>
+          <t>2014-03-15T02:47:11</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:29</t>
+          <t>2014-03-15T02:47:13</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:29</t>
+          <t>2014-03-15T02:47:13</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:30</t>
+          <t>2014-03-15T02:47:16</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>2014-03-13T03:32:30</t>
+          <t>2014-03-15T02:47:17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10066584</v>
+        <v>10070948</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>41713.11592592593</v>
+        <v>41716.69880787037</v>
       </c>
       <c r="C27" t="n">
-        <v>-20.3457</v>
+        <v>-19.9813</v>
       </c>
       <c r="D27" t="n">
-        <v>-71.22880000000001</v>
+        <v>-70.87269999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2862,90 +2862,90 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:09</t>
+          <t>2014-03-18T16:46:27</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:10</t>
+          <t>2014-03-18T16:46:28</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:11</t>
+          <t>2014-03-18T16:46:29</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:13</t>
+          <t>2014-03-18T16:46:30</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:13</t>
+          <t>2014-03-18T16:46:31</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:16</t>
+          <t>2014-03-18T16:46:33</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>2014-03-15T02:47:17</t>
+          <t>2014-03-18T16:46:33</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10070948</v>
+        <v>10071948</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>41716.69880787037</v>
+        <v>41717.51613425926</v>
       </c>
       <c r="C28" t="n">
-        <v>-19.9813</v>
+        <v>-19.746</v>
       </c>
       <c r="D28" t="n">
-        <v>-70.87269999999999</v>
+        <v>-70.869</v>
       </c>
       <c r="E28" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2954,90 +2954,90 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>HMBCX</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:27</t>
+          <t>2014-03-19T12:23:23</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:28</t>
+          <t>2014-03-19T12:23:25</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:29</t>
+          <t>2014-03-19T12:23:27</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:30</t>
+          <t>2014-03-19T12:23:28</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:31</t>
+          <t>2014-03-19T12:23:28</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:33</t>
+          <t>2014-03-19T12:23:29</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>2014-03-18T16:46:33</t>
+          <t>2014-03-19T12:23:31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10071948</v>
+        <v>10072471</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>41717.51613425926</v>
+        <v>41717.8856712963</v>
       </c>
       <c r="C29" t="n">
-        <v>-19.746</v>
+        <v>-19.9822</v>
       </c>
       <c r="D29" t="n">
-        <v>-70.869</v>
+        <v>-70.754</v>
       </c>
       <c r="E29" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3046,90 +3046,90 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>PX02</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:23</t>
+          <t>2014-03-19T21:15:30</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:25</t>
+          <t>2014-03-19T21:15:31</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:27</t>
+          <t>2014-03-19T21:15:32</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:28</t>
+          <t>2014-03-19T21:15:33</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:28</t>
+          <t>2014-03-19T21:15:35</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:29</t>
+          <t>2014-03-19T21:15:36</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>2014-03-19T12:23:31</t>
+          <t>2014-03-19T21:15:37</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10072471</v>
+        <v>10075834</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>41717.8856712963</v>
+        <v>41720.78658564815</v>
       </c>
       <c r="C30" t="n">
-        <v>-19.9822</v>
+        <v>-20.003</v>
       </c>
       <c r="D30" t="n">
-        <v>-70.754</v>
+        <v>-70.98690000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3143,14 +3143,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
           <t>HMBCX</t>
@@ -3173,423 +3173,423 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:30</t>
+          <t>2014-03-22T18:52:52</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:31</t>
+          <t>2014-03-22T18:52:53</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:32</t>
+          <t>2014-03-22T18:52:53</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:33</t>
+          <t>2014-03-22T18:52:55</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:35</t>
+          <t>2014-03-22T18:52:56</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:36</t>
+          <t>2014-03-22T18:52:58</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>2014-03-19T21:15:37</t>
+          <t>2014-03-22T18:52:58</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10075834</v>
+        <v>10079971</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>41720.78658564815</v>
+        <v>41723.92275462963</v>
       </c>
       <c r="C31" t="n">
-        <v>-20.003</v>
+        <v>-26.3954</v>
       </c>
       <c r="D31" t="n">
-        <v>-70.98690000000001</v>
+        <v>-70.86020000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>AC01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>AC02</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>GO02</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:52</t>
+          <t>2014-03-25T22:08:50</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:53</t>
+          <t>2014-03-25T22:08:56</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:53</t>
+          <t>2014-03-25T22:08:57</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:55</t>
+          <t>2014-03-25T22:09:00</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:56</t>
+          <t>2014-03-25T22:09:04</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:58</t>
+          <t>2014-03-25T22:09:08</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>2014-03-22T18:52:58</t>
+          <t>2014-03-25T22:09:09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10079971</v>
+        <v>10080756</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>41723.92275462963</v>
+        <v>41724.62571759259</v>
       </c>
       <c r="C32" t="n">
-        <v>-26.3954</v>
+        <v>-19.6248</v>
       </c>
       <c r="D32" t="n">
-        <v>-70.86020000000001</v>
+        <v>-71.11839999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AC01</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>AC02</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>GO02</t>
+          <t>AP01</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:08:50</t>
+          <t>2014-03-26T15:01:14</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:08:56</t>
+          <t>2014-03-26T15:01:17</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:08:57</t>
+          <t>2014-03-26T15:01:17</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:09:00</t>
+          <t>2014-03-26T15:01:19</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:09:04</t>
+          <t>2014-03-26T15:01:19</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:09:08</t>
+          <t>2014-03-26T15:01:20</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>2014-03-25T22:09:09</t>
+          <t>2014-03-26T15:01:21</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10080756</v>
+        <v>10101486</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>41724.62571759259</v>
+        <v>42852.07991898148</v>
       </c>
       <c r="C33" t="n">
-        <v>-19.6248</v>
+        <v>-33.1164</v>
       </c>
       <c r="D33" t="n">
-        <v>-71.11839999999999</v>
+        <v>-71.75960000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>VA05</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:14</t>
+          <t>2017-04-27T01:55:06</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:17</t>
+          <t>2017-04-27T01:55:06</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:17</t>
+          <t>2017-04-27T01:55:12</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:19</t>
+          <t>2017-04-27T01:55:12</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:19</t>
+          <t>2017-04-27T01:55:13</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:20</t>
+          <t>2017-04-27T01:55:13</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>2014-03-26T15:01:21</t>
+          <t>2017-04-27T01:55:14</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10101486</v>
+        <v>10165782</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42852.07991898148</v>
+        <v>41730.79003472222</v>
       </c>
       <c r="C34" t="n">
-        <v>-33.1164</v>
+        <v>-19.6902</v>
       </c>
       <c r="D34" t="n">
-        <v>-71.75960000000001</v>
+        <v>-70.8104</v>
       </c>
       <c r="E34" t="n">
         <v>3.9</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>VA05</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:06</t>
+          <t>2014-04-01T18:57:48</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:06</t>
+          <t>2014-04-01T18:57:50</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:12</t>
+          <t>2014-04-01T18:57:51</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:12</t>
+          <t>2014-04-01T18:57:53</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:13</t>
+          <t>2014-04-01T18:57:53</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:13</t>
+          <t>2014-04-01T18:57:54</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>2017-04-27T01:55:14</t>
+          <t>2014-04-01T18:57:55</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10165782</v>
+        <v>10166246</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>41730.79003472222</v>
+        <v>41731.20672453703</v>
       </c>
       <c r="C35" t="n">
-        <v>-19.6902</v>
+        <v>-19.8714</v>
       </c>
       <c r="D35" t="n">
-        <v>-70.8104</v>
+        <v>-70.8475</v>
       </c>
       <c r="E35" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3598,90 +3598,90 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>PX02</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>PB12</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:48</t>
+          <t>2014-04-02T04:57:51</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:50</t>
+          <t>2014-04-02T04:57:51</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:51</t>
+          <t>2014-04-02T04:57:53</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:53</t>
+          <t>2014-04-02T04:57:54</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:53</t>
+          <t>2014-04-02T04:57:56</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:54</t>
+          <t>2014-04-02T04:57:56</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>2014-04-01T18:57:55</t>
+          <t>2014-04-02T04:57:56</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10166246</v>
+        <v>10166730</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>41731.20672453703</v>
+        <v>41731.5908449074</v>
       </c>
       <c r="C36" t="n">
-        <v>-19.8714</v>
+        <v>-20.67</v>
       </c>
       <c r="D36" t="n">
-        <v>-70.8475</v>
+        <v>-70.554</v>
       </c>
       <c r="E36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3690,19 +3690,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
       <c r="J36" t="inlineStr">
         <is>
           <t>HMBCX</t>
@@ -3710,70 +3710,70 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:51</t>
+          <t>2014-04-02T14:10:54</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:51</t>
+          <t>2014-04-02T14:10:54</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:53</t>
+          <t>2014-04-02T14:10:56</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:54</t>
+          <t>2014-04-02T14:10:59</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:56</t>
+          <t>2014-04-02T14:11:01</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:56</t>
+          <t>2014-04-02T14:11:01</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2014-04-02T04:57:56</t>
+          <t>2014-04-02T14:11:03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>10166730</v>
+        <v>10168752</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>41731.5908449074</v>
+        <v>41733.30091435185</v>
       </c>
       <c r="C37" t="n">
-        <v>-20.67</v>
+        <v>-19.904</v>
       </c>
       <c r="D37" t="n">
-        <v>-70.554</v>
+        <v>-70.425</v>
       </c>
       <c r="E37" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3782,90 +3782,90 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>PX03</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>PB02</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>PB01</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:10:54</t>
+          <t>2014-04-04T07:13:24</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:10:54</t>
+          <t>2014-04-04T07:13:25</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:10:56</t>
+          <t>2014-04-04T07:13:27</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:10:59</t>
+          <t>2014-04-04T07:13:28</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:11:01</t>
+          <t>2014-04-04T07:13:29</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:11:01</t>
+          <t>2014-04-04T07:13:31</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2014-04-02T14:11:03</t>
+          <t>2014-04-04T07:13:32</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10168752</v>
+        <v>10169070</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>41733.30091435185</v>
+        <v>41733.57046296296</v>
       </c>
       <c r="C38" t="n">
-        <v>-19.904</v>
+        <v>-18.303</v>
       </c>
       <c r="D38" t="n">
-        <v>-70.425</v>
+        <v>-69.26990000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3874,90 +3874,90 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>PB13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>PB16</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>AP02</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>PB18</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>AP01</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:24</t>
+          <t>2014-04-04T13:41:31</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:25</t>
+          <t>2014-04-04T13:41:31</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:27</t>
+          <t>2014-04-04T13:41:35</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:28</t>
+          <t>2014-04-04T13:41:38</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:29</t>
+          <t>2014-04-04T13:41:40</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:31</t>
+          <t>2014-04-04T13:41:42</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2014-04-04T07:13:32</t>
+          <t>2014-04-04T13:41:42</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10169070</v>
+        <v>10170144</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>41733.57046296296</v>
+        <v>41734.51606481482</v>
       </c>
       <c r="C39" t="n">
-        <v>-18.303</v>
+        <v>-20.1007</v>
       </c>
       <c r="D39" t="n">
-        <v>-69.26990000000001</v>
+        <v>-70.7764</v>
       </c>
       <c r="E39" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3966,90 +3966,90 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>PB13</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>PB16</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>AP02</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PB18</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:31</t>
+          <t>2014-04-05T12:23:16</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:31</t>
+          <t>2014-04-05T12:23:18</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:35</t>
+          <t>2014-04-05T12:23:18</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:38</t>
+          <t>2014-04-05T12:23:19</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:40</t>
+          <t>2014-04-05T12:23:20</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:42</t>
+          <t>2014-04-05T12:23:23</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>2014-04-04T13:41:42</t>
+          <t>2014-04-05T12:23:23</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10170144</v>
+        <v>10170201</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>41734.51606481482</v>
+        <v>41734.56690972222</v>
       </c>
       <c r="C40" t="n">
-        <v>-20.1007</v>
+        <v>-19.97</v>
       </c>
       <c r="D40" t="n">
-        <v>-70.7764</v>
+        <v>-70.985</v>
       </c>
       <c r="E40" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4063,14 +4063,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
       <c r="J40" t="inlineStr">
         <is>
           <t>HMBCX</t>
@@ -4088,60 +4088,60 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:16</t>
+          <t>2014-04-05T13:36:32</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:18</t>
+          <t>2014-04-05T13:36:33</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:18</t>
+          <t>2014-04-05T13:36:34</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:19</t>
+          <t>2014-04-05T13:36:35</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:20</t>
+          <t>2014-04-05T13:36:36</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:23</t>
+          <t>2014-04-05T13:36:38</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2014-04-05T12:23:23</t>
+          <t>2014-04-05T13:36:38</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10170201</v>
+        <v>10171429</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>41734.56690972222</v>
+        <v>41735.75064814815</v>
       </c>
       <c r="C41" t="n">
-        <v>-19.97</v>
+        <v>-20.539</v>
       </c>
       <c r="D41" t="n">
-        <v>-70.985</v>
+        <v>-70.899</v>
       </c>
       <c r="E41" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -4150,90 +4150,90 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PB02</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:32</t>
+          <t>2014-04-06T18:01:05</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:33</t>
+          <t>2014-04-06T18:01:06</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:34</t>
+          <t>2014-04-06T18:01:06</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:35</t>
+          <t>2014-04-06T18:01:09</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:36</t>
+          <t>2014-04-06T18:01:12</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:38</t>
+          <t>2014-04-06T18:01:12</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>2014-04-05T13:36:38</t>
+          <t>2014-04-06T18:01:12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10171429</v>
+        <v>10171518</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>41735.75064814815</v>
+        <v>41735.82108796296</v>
       </c>
       <c r="C42" t="n">
-        <v>-20.539</v>
+        <v>-19.801</v>
       </c>
       <c r="D42" t="n">
-        <v>-70.899</v>
+        <v>-70.91800000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -4242,90 +4242,90 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>PB02</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>PX03</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:05</t>
+          <t>2014-04-06T19:42:32</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:06</t>
+          <t>2014-04-06T19:42:34</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:06</t>
+          <t>2014-04-06T19:42:36</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:09</t>
+          <t>2014-04-06T19:42:36</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:12</t>
+          <t>2014-04-06T19:42:36</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:12</t>
+          <t>2014-04-06T19:42:38</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>2014-04-06T18:01:12</t>
+          <t>2014-04-06T19:42:39</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10171518</v>
+        <v>10172691</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>41735.82108796296</v>
+        <v>41736.82951388889</v>
       </c>
       <c r="C43" t="n">
-        <v>-19.801</v>
+        <v>-20.1029</v>
       </c>
       <c r="D43" t="n">
-        <v>-70.91800000000001</v>
+        <v>-70.8261</v>
       </c>
       <c r="E43" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -4334,19 +4334,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
       <c r="J43" t="inlineStr">
         <is>
           <t>HMBCX</t>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4364,60 +4364,60 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:32</t>
+          <t>2014-04-07T19:54:39</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:34</t>
+          <t>2014-04-07T19:54:40</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:36</t>
+          <t>2014-04-07T19:54:41</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:36</t>
+          <t>2014-04-07T19:54:42</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:36</t>
+          <t>2014-04-07T19:54:43</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:38</t>
+          <t>2014-04-07T19:54:45</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2014-04-06T19:42:39</t>
+          <t>2014-04-07T19:54:46</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10172691</v>
+        <v>10175242</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>41736.82951388889</v>
+        <v>41738.68429398148</v>
       </c>
       <c r="C44" t="n">
-        <v>-20.1029</v>
+        <v>-19.981</v>
       </c>
       <c r="D44" t="n">
-        <v>-70.8261</v>
+        <v>-70.956</v>
       </c>
       <c r="E44" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -4456,57 +4456,57 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:39</t>
+          <t>2014-04-09T16:25:34</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:40</t>
+          <t>2014-04-09T16:25:35</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:41</t>
+          <t>2014-04-09T16:25:35</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:42</t>
+          <t>2014-04-09T16:25:37</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:43</t>
+          <t>2014-04-09T16:25:38</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:45</t>
+          <t>2014-04-09T16:25:40</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2014-04-07T19:54:46</t>
+          <t>2014-04-09T16:25:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10175242</v>
+        <v>10180091</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>41738.68429398148</v>
+        <v>41742.56123842593</v>
       </c>
       <c r="C45" t="n">
-        <v>-19.981</v>
+        <v>-19.972</v>
       </c>
       <c r="D45" t="n">
-        <v>-70.956</v>
+        <v>-70.91800000000001</v>
       </c>
       <c r="E45" t="n">
         <v>3.7</v>
@@ -4523,14 +4523,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>TA01</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
       <c r="J45" t="inlineStr">
         <is>
           <t>HMBCX</t>
@@ -4553,55 +4553,55 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:34</t>
+          <t>2014-04-13T13:28:21</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:35</t>
+          <t>2014-04-13T13:28:22</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:35</t>
+          <t>2014-04-13T13:28:23</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:37</t>
+          <t>2014-04-13T13:28:25</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:38</t>
+          <t>2014-04-13T13:28:26</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:40</t>
+          <t>2014-04-13T13:28:27</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2014-04-09T16:25:40</t>
+          <t>2014-04-13T13:28:27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10180091</v>
+        <v>10196186</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>41742.56123842593</v>
+        <v>41755.85899305555</v>
       </c>
       <c r="C46" t="n">
-        <v>-19.972</v>
+        <v>-19.867</v>
       </c>
       <c r="D46" t="n">
-        <v>-70.91800000000001</v>
+        <v>-70.53100000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -4610,14 +4610,14 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PSGCX</t>
-        </is>
-      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>TA01</t>
@@ -4630,14 +4630,14 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
+          <t>PB11</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
       <c r="M46" t="inlineStr">
         <is>
           <t>PX02</t>
@@ -4645,55 +4645,55 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:21</t>
+          <t>2014-04-26T20:37:03</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:22</t>
+          <t>2014-04-26T20:37:04</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:23</t>
+          <t>2014-04-26T20:37:07</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:25</t>
+          <t>2014-04-26T20:37:07</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:26</t>
+          <t>2014-04-26T20:37:08</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:27</t>
+          <t>2014-04-26T20:37:10</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2014-04-13T13:28:27</t>
+          <t>2014-04-26T20:37:10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10196186</v>
+        <v>10197833</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>41755.85899305555</v>
+        <v>41757.4609837963</v>
       </c>
       <c r="C47" t="n">
-        <v>-19.867</v>
+        <v>-20.502</v>
       </c>
       <c r="D47" t="n">
-        <v>-70.53100000000001</v>
+        <v>-70.756</v>
       </c>
       <c r="E47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -4702,274 +4702,274 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>PB11</t>
-        </is>
-      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:03</t>
+          <t>2014-04-28T11:03:56</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:04</t>
+          <t>2014-04-28T11:03:57</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:07</t>
+          <t>2014-04-28T11:03:57</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:07</t>
+          <t>2014-04-28T11:04:00</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:08</t>
+          <t>2014-04-28T11:04:03</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:10</t>
+          <t>2014-04-28T11:04:03</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>2014-04-26T20:37:10</t>
+          <t>2014-04-28T11:04:04</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10197833</v>
+        <v>10198705</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>41757.4609837963</v>
+        <v>41758.17118055555</v>
       </c>
       <c r="C48" t="n">
-        <v>-20.502</v>
+        <v>-28.973</v>
       </c>
       <c r="D48" t="n">
-        <v>-70.756</v>
+        <v>-71.292</v>
       </c>
       <c r="E48" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:03:56</t>
+          <t>2014-04-29T04:06:34</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:03:57</t>
+          <t>2014-04-29T04:06:40</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:03:57</t>
+          <t>2014-04-29T04:06:42</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:04:00</t>
+          <t>2014-04-29T04:06:43</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:04:03</t>
+          <t>2014-04-29T04:06:43</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:04:03</t>
+          <t>2014-04-29T04:06:44</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>2014-04-28T11:04:04</t>
+          <t>2014-04-29T04:06:47</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>10198705</v>
+        <v>10200023</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>41758.17118055555</v>
+        <v>41759.4025462963</v>
       </c>
       <c r="C49" t="n">
-        <v>-28.973</v>
+        <v>-19.7991</v>
       </c>
       <c r="D49" t="n">
-        <v>-71.292</v>
+        <v>-70.9633</v>
       </c>
       <c r="E49" t="n">
         <v>3.7</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:34</t>
+          <t>2014-04-30T09:39:51</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:40</t>
+          <t>2014-04-30T09:39:52</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:42</t>
+          <t>2014-04-30T09:39:54</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:43</t>
+          <t>2014-04-30T09:39:55</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:43</t>
+          <t>2014-04-30T09:39:55</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:44</t>
+          <t>2014-04-30T09:39:56</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>2014-04-29T04:06:47</t>
+          <t>2014-04-30T09:39:57</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>10200023</v>
+        <v>10200285</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>41759.4025462963</v>
+        <v>41759.61040509259</v>
       </c>
       <c r="C50" t="n">
-        <v>-19.7991</v>
+        <v>-19.842</v>
       </c>
       <c r="D50" t="n">
-        <v>-70.9633</v>
+        <v>-70.887</v>
       </c>
       <c r="E50" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5003,65 +5003,65 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>PB11</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>PATCX</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:51</t>
+          <t>2014-04-30T14:39:09</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:52</t>
+          <t>2014-04-30T14:39:10</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:54</t>
+          <t>2014-04-30T14:39:12</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:55</t>
+          <t>2014-04-30T14:39:13</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:55</t>
+          <t>2014-04-30T14:39:14</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:56</t>
+          <t>2014-04-30T14:39:15</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>2014-04-30T09:39:57</t>
+          <t>2014-04-30T14:39:15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10200285</v>
+        <v>10236152</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>41759.61040509259</v>
+        <v>41764.53572916667</v>
       </c>
       <c r="C51" t="n">
-        <v>-19.842</v>
+        <v>-19.289</v>
       </c>
       <c r="D51" t="n">
-        <v>-70.887</v>
+        <v>-71.10429999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -5070,32 +5070,32 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>PX02</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PB12</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>AP01</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>TA02</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -5105,607 +5105,607 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:09</t>
+          <t>2014-05-05T12:51:39</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:10</t>
+          <t>2014-05-05T12:51:40</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:12</t>
+          <t>2014-05-05T12:51:40</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:13</t>
+          <t>2014-05-05T12:51:43</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:14</t>
+          <t>2014-05-05T12:51:45</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:15</t>
+          <t>2014-05-05T12:51:46</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>2014-04-30T14:39:15</t>
+          <t>2014-05-05T12:51:46</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10236152</v>
+        <v>10241923</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>41764.53572916667</v>
+        <v>41769.69465277778</v>
       </c>
       <c r="C52" t="n">
-        <v>-19.289</v>
+        <v>-28.151</v>
       </c>
       <c r="D52" t="n">
-        <v>-71.10429999999999</v>
+        <v>-70.23099999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:39</t>
+          <t>2014-05-10T16:40:25</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:40</t>
+          <t>2014-05-10T16:40:27</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:40</t>
+          <t>2014-05-10T16:40:28</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:43</t>
+          <t>2014-05-10T16:40:29</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:45</t>
+          <t>2014-05-10T16:40:32</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:46</t>
+          <t>2014-05-10T16:40:34</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>2014-05-05T12:51:46</t>
+          <t>2014-05-10T16:40:39</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10241923</v>
+        <v>10247421</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>41769.69465277778</v>
+        <v>41774.74010416667</v>
       </c>
       <c r="C53" t="n">
-        <v>-28.151</v>
+        <v>-29.834</v>
       </c>
       <c r="D53" t="n">
-        <v>-70.23099999999999</v>
+        <v>-71.45699999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:25</t>
+          <t>2014-05-15T17:45:47</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:27</t>
+          <t>2014-05-15T17:45:47</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:28</t>
+          <t>2014-05-15T17:45:48</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:29</t>
+          <t>2014-05-15T17:45:53</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:32</t>
+          <t>2014-05-15T17:45:54</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:34</t>
+          <t>2014-05-15T17:45:54</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2014-05-10T16:40:39</t>
+          <t>2014-05-15T17:45:56</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10247421</v>
+        <v>10294616</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>41774.74010416667</v>
+        <v>41799.58157407407</v>
       </c>
       <c r="C54" t="n">
-        <v>-29.834</v>
+        <v>-21.28</v>
       </c>
       <c r="D54" t="n">
-        <v>-71.45699999999999</v>
+        <v>-70.495</v>
       </c>
       <c r="E54" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>PB07</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PX05</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:47</t>
+          <t>2014-06-09T13:57:35</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:47</t>
+          <t>2014-06-09T13:57:35</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:48</t>
+          <t>2014-06-09T13:57:37</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:53</t>
+          <t>2014-06-09T13:57:38</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:54</t>
+          <t>2014-06-09T13:57:38</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:54</t>
+          <t>2014-06-09T13:57:41</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>2014-05-15T17:45:56</t>
+          <t>2014-06-09T13:57:42</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10294616</v>
+        <v>10295341</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>41799.58157407407</v>
+        <v>41800.26</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.28</v>
+        <v>-19.976</v>
       </c>
       <c r="D55" t="n">
-        <v>-70.495</v>
+        <v>-71.063</v>
       </c>
       <c r="E55" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PSGCX</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
           <t>PATCX</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PB02</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>PB07</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>PX05</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:35</t>
+          <t>2014-06-10T06:14:36</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:35</t>
+          <t>2014-06-10T06:14:37</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:37</t>
+          <t>2014-06-10T06:14:38</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:38</t>
+          <t>2014-06-10T06:14:39</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:38</t>
+          <t>2014-06-10T06:14:40</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:41</t>
+          <t>2014-06-10T06:14:41</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>2014-06-09T13:57:42</t>
+          <t>2014-06-10T06:14:42</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10295341</v>
+        <v>10300184</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>41800.26</v>
+        <v>41804.6746412037</v>
       </c>
       <c r="C56" t="n">
-        <v>-19.976</v>
+        <v>-30.2636</v>
       </c>
       <c r="D56" t="n">
-        <v>-71.063</v>
+        <v>-71.5222</v>
       </c>
       <c r="E56" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:36</t>
+          <t>2014-06-14T16:11:33</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:37</t>
+          <t>2014-06-14T16:11:34</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:38</t>
+          <t>2014-06-14T16:11:34</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:39</t>
+          <t>2014-06-14T16:11:34</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:40</t>
+          <t>2014-06-14T16:11:37</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:41</t>
+          <t>2014-06-14T16:11:37</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>2014-06-10T06:14:42</t>
+          <t>2014-06-14T16:11:41</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10300184</v>
+        <v>10381273</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>41804.6746412037</v>
+        <v>41878.75949074074</v>
       </c>
       <c r="C57" t="n">
-        <v>-30.2636</v>
+        <v>-19.7032</v>
       </c>
       <c r="D57" t="n">
-        <v>-71.5222</v>
+        <v>-70.2371</v>
       </c>
       <c r="E57" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:33</t>
+          <t>2014-08-27T18:13:42</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:34</t>
+          <t>2014-08-27T18:13:47</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:34</t>
+          <t>2014-08-27T18:13:47</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:34</t>
+          <t>2014-08-27T18:13:49</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:37</t>
+          <t>2014-08-27T18:13:50</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:37</t>
+          <t>2014-08-27T18:13:51</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>2014-06-14T16:11:41</t>
+          <t>2014-08-27T18:13:51</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10381273</v>
+        <v>10414184</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>41878.75949074074</v>
+        <v>41883.86216435185</v>
       </c>
       <c r="C58" t="n">
-        <v>-19.7032</v>
+        <v>-20.058</v>
       </c>
       <c r="D58" t="n">
-        <v>-70.2371</v>
+        <v>-70.616</v>
       </c>
       <c r="E58" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -5714,642 +5714,642 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
+          <t>TA02</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TA01</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>HMBCX</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>PSGCX</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>TA02</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PATCX</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>PB11</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>HMBCX</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>PX02</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>TA01</t>
-        </is>
-      </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:42</t>
+          <t>2014-09-01T20:41:37</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:47</t>
+          <t>2014-09-01T20:41:39</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:47</t>
+          <t>2014-09-01T20:41:40</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:49</t>
+          <t>2014-09-01T20:41:40</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:50</t>
+          <t>2014-09-01T20:41:43</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:51</t>
+          <t>2014-09-01T20:41:44</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>2014-08-27T18:13:51</t>
+          <t>2014-09-01T20:41:44</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>10414184</v>
+        <v>10426228</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>41883.86216435185</v>
+        <v>41894.67677083334</v>
       </c>
       <c r="C59" t="n">
-        <v>-20.058</v>
+        <v>-32.799</v>
       </c>
       <c r="D59" t="n">
-        <v>-70.616</v>
+        <v>-71.102</v>
       </c>
       <c r="E59" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>VA03</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:37</t>
+          <t>2014-09-12T16:14:35</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:39</t>
+          <t>2014-09-12T16:14:35</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:40</t>
+          <t>2014-09-12T16:14:36</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:40</t>
+          <t>2014-09-12T16:14:39</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:43</t>
+          <t>2014-09-12T16:14:39</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:44</t>
+          <t>2014-09-12T16:14:40</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>2014-09-01T20:41:44</t>
+          <t>2014-09-12T16:14:41</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>10426228</v>
+        <v>10472281</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>41894.67677083334</v>
+        <v>41931.74743055556</v>
       </c>
       <c r="C60" t="n">
-        <v>-32.799</v>
+        <v>-21.206</v>
       </c>
       <c r="D60" t="n">
-        <v>-71.102</v>
+        <v>-70.096</v>
       </c>
       <c r="E60" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>PB07</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>VA03</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>PX05</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:35</t>
+          <t>2014-10-19T17:56:21</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:35</t>
+          <t>2014-10-19T17:56:23</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:36</t>
+          <t>2014-10-19T17:56:25</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:39</t>
+          <t>2014-10-19T17:56:26</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:39</t>
+          <t>2014-10-19T17:56:26</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:40</t>
+          <t>2014-10-19T17:56:28</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>2014-09-12T16:14:41</t>
+          <t>2014-10-19T17:56:30</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10472281</v>
+        <v>10496852</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>41931.74743055556</v>
+        <v>41981.96969907408</v>
       </c>
       <c r="C61" t="n">
-        <v>-21.206</v>
+        <v>-28.055</v>
       </c>
       <c r="D61" t="n">
-        <v>-70.096</v>
+        <v>-71.1609</v>
       </c>
       <c r="E61" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>PB07</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>PX05</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:21</t>
+          <t>2014-12-08T23:16:24</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:23</t>
+          <t>2014-12-08T23:16:34</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:25</t>
+          <t>2014-12-08T23:16:34</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:26</t>
+          <t>2014-12-08T23:16:35</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:26</t>
+          <t>2014-12-08T23:16:35</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:28</t>
+          <t>2014-12-08T23:16:37</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>2014-10-19T17:56:30</t>
+          <t>2014-12-08T23:16:38</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10496852</v>
+        <v>10566491</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>41981.96969907408</v>
+        <v>42006.04326388889</v>
       </c>
       <c r="C62" t="n">
-        <v>-28.055</v>
+        <v>-19.48</v>
       </c>
       <c r="D62" t="n">
-        <v>-71.1609</v>
+        <v>-69.87</v>
       </c>
       <c r="E62" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:24</t>
+          <t>2015-01-02T01:02:21</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:34</t>
+          <t>2015-01-02T01:02:22</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:34</t>
+          <t>2015-01-02T01:02:23</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:35</t>
+          <t>2015-01-02T01:02:26</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:35</t>
+          <t>2015-01-02T01:02:27</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:37</t>
+          <t>2015-01-02T01:02:28</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>2014-12-08T23:16:38</t>
+          <t>2015-01-02T01:02:29</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>10566491</v>
+        <v>10585985</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>42006.04326388889</v>
+        <v>42025.74443287037</v>
       </c>
       <c r="C63" t="n">
-        <v>-19.48</v>
+        <v>-27.877</v>
       </c>
       <c r="D63" t="n">
-        <v>-69.87</v>
+        <v>-70.622</v>
       </c>
       <c r="E63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>AC06</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>AC03</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>AC07</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:21</t>
+          <t>2015-01-21T17:52:05</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:22</t>
+          <t>2015-01-21T17:52:06</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:23</t>
+          <t>2015-01-21T17:52:06</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:26</t>
+          <t>2015-01-21T17:52:07</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:27</t>
+          <t>2015-01-21T17:52:09</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:28</t>
+          <t>2015-01-21T17:52:12</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>2015-01-02T01:02:29</t>
+          <t>2015-01-21T17:52:20</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>10585985</v>
+        <v>10653068</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>42025.74443287037</v>
+        <v>42072.26197916667</v>
       </c>
       <c r="C64" t="n">
-        <v>-27.877</v>
+        <v>-23.452</v>
       </c>
       <c r="D64" t="n">
-        <v>-70.622</v>
+        <v>-69.762</v>
       </c>
       <c r="E64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>PB15</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>PX06</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>AC06</t>
+          <t>PB19</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>AC03</t>
+          <t>PB05</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>AC07</t>
+          <t>PB06</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>PB10</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>PB04</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:05</t>
+          <t>2015-03-09T06:17:19</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:06</t>
+          <t>2015-03-09T06:17:21</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:06</t>
+          <t>2015-03-09T06:17:23</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:07</t>
+          <t>2015-03-09T06:17:24</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:09</t>
+          <t>2015-03-09T06:17:25</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:12</t>
+          <t>2015-03-09T06:17:25</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>2015-01-21T17:52:20</t>
+          <t>2015-03-09T06:17:31</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10653068</v>
+        <v>10656629</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>42072.26197916667</v>
+        <v>42076.03060185185</v>
       </c>
       <c r="C65" t="n">
-        <v>-23.452</v>
+        <v>-23.0382</v>
       </c>
       <c r="D65" t="n">
-        <v>-69.762</v>
+        <v>-70.2625</v>
       </c>
       <c r="E65" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -6358,642 +6358,642 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
+          <t>PB05</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PX06</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>PB10</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PB04</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PB06</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
           <t>PB15</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PX06</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>PB19</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>PB05</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>PB06</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>PB10</t>
-        </is>
-      </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>PB04</t>
+          <t>PB03</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:19</t>
+          <t>2015-03-13T00:44:06</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:21</t>
+          <t>2015-03-13T00:44:10</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:23</t>
+          <t>2015-03-13T00:44:11</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:24</t>
+          <t>2015-03-13T00:44:13</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:25</t>
+          <t>2015-03-13T00:44:13</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:25</t>
+          <t>2015-03-13T00:44:14</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>2015-03-09T06:17:31</t>
+          <t>2015-03-13T00:44:19</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10656629</v>
+        <v>10760271</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>42076.03060185185</v>
+        <v>42153.57655092593</v>
       </c>
       <c r="C66" t="n">
-        <v>-23.0382</v>
+        <v>-28.968</v>
       </c>
       <c r="D66" t="n">
-        <v>-70.2625</v>
+        <v>-71.249</v>
       </c>
       <c r="E66" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>PB06</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>PB05</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>PX06</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>PB10</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>PB04</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>PB06</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>PB15</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>PB03</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:06</t>
+          <t>2015-05-29T13:50:18</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:10</t>
+          <t>2015-05-29T13:50:24</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:11</t>
+          <t>2015-05-29T13:50:25</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:13</t>
+          <t>2015-05-29T13:50:27</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:13</t>
+          <t>2015-05-29T13:50:27</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:14</t>
+          <t>2015-05-29T13:50:28</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>2015-03-13T00:44:19</t>
+          <t>2015-05-29T13:50:31</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10760271</v>
+        <v>10795175</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>42153.57655092593</v>
+        <v>42179.93284722222</v>
       </c>
       <c r="C67" t="n">
-        <v>-28.968</v>
+        <v>-30.377</v>
       </c>
       <c r="D67" t="n">
-        <v>-71.249</v>
+        <v>-71.29000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>AC04</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>AC05</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>CO05</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:18</t>
+          <t>2015-06-24T22:23:23</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:24</t>
+          <t>2015-06-24T22:23:23</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:25</t>
+          <t>2015-06-24T22:23:23</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:27</t>
+          <t>2015-06-24T22:23:24</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:27</t>
+          <t>2015-06-24T22:23:24</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:28</t>
+          <t>2015-06-24T22:23:24</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>2015-05-29T13:50:31</t>
+          <t>2015-06-24T22:23:27</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10795175</v>
+        <v>10825892</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>42179.93284722222</v>
+        <v>42203.89068287037</v>
       </c>
       <c r="C68" t="n">
-        <v>-30.377</v>
+        <v>-18.697</v>
       </c>
       <c r="D68" t="n">
-        <v>-71.29000000000001</v>
+        <v>-70.70099999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>AP01</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>PB13</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>PB16</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:23</t>
+          <t>2015-07-18T21:22:40</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:23</t>
+          <t>2015-07-18T21:22:41</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:23</t>
+          <t>2015-07-18T21:22:42</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:24</t>
+          <t>2015-07-18T21:22:49</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:24</t>
+          <t>2015-07-18T21:22:50</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:24</t>
+          <t>2015-07-18T21:22:51</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2015-06-24T22:23:27</t>
+          <t>2015-07-18T21:22:51</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>10825892</v>
+        <v>10826313</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>42203.89068287037</v>
+        <v>42204.38774305556</v>
       </c>
       <c r="C69" t="n">
-        <v>-18.697</v>
+        <v>-31.73</v>
       </c>
       <c r="D69" t="n">
-        <v>-70.70099999999999</v>
+        <v>-71.788</v>
       </c>
       <c r="E69" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>CO04</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>CO03</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>PB13</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>PB16</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:40</t>
+          <t>2015-07-19T09:18:31</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:41</t>
+          <t>2015-07-19T09:18:32</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:42</t>
+          <t>2015-07-19T09:18:33</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:49</t>
+          <t>2015-07-19T09:18:35</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:50</t>
+          <t>2015-07-19T09:18:38</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:51</t>
+          <t>2015-07-19T09:18:38</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>2015-07-18T21:22:51</t>
+          <t>2015-07-19T09:18:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10826313</v>
+        <v>10852117</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>42204.38774305556</v>
+        <v>42217.42993055555</v>
       </c>
       <c r="C70" t="n">
-        <v>-31.73</v>
+        <v>-28.969</v>
       </c>
       <c r="D70" t="n">
-        <v>-71.788</v>
+        <v>-71.40600000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>GO03</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>AC04</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>AC05</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>CO03</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:31</t>
+          <t>2015-08-01T10:19:09</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:32</t>
+          <t>2015-08-01T10:19:17</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:33</t>
+          <t>2015-08-01T10:19:19</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:35</t>
+          <t>2015-08-01T10:19:19</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:38</t>
+          <t>2015-08-01T10:19:19</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:38</t>
+          <t>2015-08-01T10:19:20</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>2015-07-19T09:18:40</t>
+          <t>2015-08-01T10:19:24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>10852117</v>
+        <v>10874891</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>42217.42993055555</v>
+        <v>42239.97646990741</v>
       </c>
       <c r="C71" t="n">
-        <v>-28.969</v>
+        <v>-29.806</v>
       </c>
       <c r="D71" t="n">
-        <v>-71.40600000000001</v>
+        <v>-71.253</v>
       </c>
       <c r="E71" t="n">
         <v>3.4</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>GO03</t>
+          <t>CO02</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
+          <t>CO05</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>IN40</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>IN41</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>GO04</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
           <t>CO10</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>AC04</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>AC05</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>CO06</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:09</t>
+          <t>2015-08-23T23:26:08</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:17</t>
+          <t>2015-08-23T23:26:09</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:19</t>
+          <t>2015-08-23T23:26:09</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:19</t>
+          <t>2015-08-23T23:26:14</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:19</t>
+          <t>2015-08-23T23:26:14</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:20</t>
+          <t>2015-08-23T23:26:15</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>2015-08-01T10:19:24</t>
+          <t>2015-08-23T23:26:19</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10874891</v>
+        <v>10875063</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>42239.97646990741</v>
+        <v>42240.17599537037</v>
       </c>
       <c r="C72" t="n">
-        <v>-29.806</v>
+        <v>-29.82</v>
       </c>
       <c r="D72" t="n">
-        <v>-71.253</v>
+        <v>-71.23699999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -7037,55 +7037,55 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:08</t>
+          <t>2015-08-24T04:13:27</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:09</t>
+          <t>2015-08-24T04:13:28</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:09</t>
+          <t>2015-08-24T04:13:28</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:14</t>
+          <t>2015-08-24T04:13:33</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:14</t>
+          <t>2015-08-24T04:13:33</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:15</t>
+          <t>2015-08-24T04:13:34</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>2015-08-23T23:26:19</t>
+          <t>2015-08-24T04:13:38</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10875063</v>
+        <v>10875746</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>42240.17599537037</v>
+        <v>42240.99766203704</v>
       </c>
       <c r="C73" t="n">
-        <v>-29.82</v>
+        <v>-29.735</v>
       </c>
       <c r="D73" t="n">
-        <v>-71.23699999999999</v>
+        <v>-71.255</v>
       </c>
       <c r="E73" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -7109,19 +7109,19 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
+          <t>CO10</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
           <t>GO04</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>TLL</t>
         </is>
       </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
       <c r="M73" t="inlineStr">
         <is>
           <t>CO06</t>
@@ -7129,52 +7129,52 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:27</t>
+          <t>2015-08-24T23:56:40</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:28</t>
+          <t>2015-08-24T23:56:41</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:28</t>
+          <t>2015-08-24T23:56:41</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:33</t>
+          <t>2015-08-24T23:56:45</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:33</t>
+          <t>2015-08-24T23:56:46</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:34</t>
+          <t>2015-08-24T23:56:46</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>2015-08-24T04:13:38</t>
+          <t>2015-08-24T23:56:51</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10875746</v>
+        <v>11258420</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>42240.99766203704</v>
+        <v>44005.84673611111</v>
       </c>
       <c r="C74" t="n">
-        <v>-29.735</v>
+        <v>-32.2594</v>
       </c>
       <c r="D74" t="n">
-        <v>-71.255</v>
+        <v>-71.7159</v>
       </c>
       <c r="E74" t="n">
         <v>3.8</v>
@@ -7186,438 +7186,346 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>CO05</t>
+          <t>VA06</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>IN40</t>
+          <t>CO04</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>IN41</t>
+          <t>VA01</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>CO10</t>
+          <t>ROC1</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GO04</t>
+          <t>MT07</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>V25A</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>CO06</t>
+          <t>MT02</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:40</t>
+          <t>2020-06-23T20:19:24</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:41</t>
+          <t>2020-06-23T20:19:27</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:41</t>
+          <t>2020-06-23T20:19:28</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:45</t>
+          <t>2020-06-23T20:19:30</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:46</t>
+          <t>2020-06-23T20:19:30</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:46</t>
+          <t>2020-06-23T20:19:30</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>2015-08-24T23:56:51</t>
+          <t>2020-06-23T20:19:33</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>11258420</v>
+        <v>11321347</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44005.84673611111</v>
+        <v>44110.48111111111</v>
       </c>
       <c r="C75" t="n">
-        <v>-32.2594</v>
+        <v>-20.7828</v>
       </c>
       <c r="D75" t="n">
-        <v>-71.7159</v>
+        <v>-70.16930000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>CO02</t>
+          <t>PB09</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VA06</t>
+          <t>PATCX</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CO04</t>
+          <t>TA01</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>VA01</t>
+          <t>TA02</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ROC1</t>
+          <t>HMBCX</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>MT07</t>
+          <t>PB02</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>V25A</t>
+          <t>PX03</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>MT02</t>
+          <t>PB01</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:24</t>
+          <t>2020-10-06T11:32:48</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:27</t>
+          <t>2020-10-06T11:32:50</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:28</t>
+          <t>2020-10-06T11:32:55</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:30</t>
+          <t>2020-10-06T11:32:55</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:30</t>
+          <t>2020-10-06T11:32:56</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:30</t>
+          <t>2020-10-06T11:32:56</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>2020-06-23T20:19:33</t>
+          <t>2020-10-06T11:32:57</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>11321347</v>
+        <v>11323593</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44110.48111111111</v>
+        <v>44115.2959837963</v>
       </c>
       <c r="C76" t="n">
-        <v>-20.7828</v>
+        <v>-19.2998</v>
       </c>
       <c r="D76" t="n">
-        <v>-70.16930000000001</v>
+        <v>-70.1674</v>
       </c>
       <c r="E76" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>PB09</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PATCX</t>
+          <t>PSGCX</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>TA01</t>
+          <t>PX02</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>TA02</t>
+          <t>MNMCX</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>HMBCX</t>
+          <t>PB11</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>PB02</t>
+          <t>PB12</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>PX03</t>
+          <t>AP01</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>PB01</t>
+          <t>GO01</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:48</t>
+          <t>2020-10-11T07:06:17</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:50</t>
+          <t>2020-10-11T07:06:17</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:55</t>
+          <t>2020-10-11T07:06:20</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:55</t>
+          <t>2020-10-11T07:06:22</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:56</t>
+          <t>2020-10-11T07:06:22</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:56</t>
+          <t>2020-10-11T07:06:25</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>2020-10-06T11:32:57</t>
+          <t>2020-10-11T07:06:26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>11323593</v>
+        <v>11339857</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44115.2959837963</v>
+        <v>44153.2303125</v>
       </c>
       <c r="C77" t="n">
-        <v>-19.2998</v>
+        <v>-29.8707</v>
       </c>
       <c r="D77" t="n">
-        <v>-70.1674</v>
+        <v>-71.1151</v>
       </c>
       <c r="E77" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO01</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>PSGCX</t>
+          <t>CO05</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PX02</t>
+          <t>IN40</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>MNMCX</t>
+          <t>IN41</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>PB11</t>
+          <t>GO04</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>PB12</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>AP01</t>
+          <t>CO10</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>GO01</t>
+          <t>CO01</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:17</t>
+          <t>2020-11-18T05:31:40</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:17</t>
+          <t>2020-11-18T05:31:41</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:20</t>
+          <t>2020-11-18T05:31:42</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:22</t>
+          <t>2020-11-18T05:31:44</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:22</t>
+          <t>2020-11-18T05:31:44</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>2020-10-11T07:06:25</t>
+          <t>2020-11-18T05:31:48</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
-        <is>
-          <t>2020-10-11T07:06:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>11339857</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>44153.2303125</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-29.8707</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-71.1151</v>
-      </c>
-      <c r="E78" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>CO01</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>CO05</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>IN40</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>IN41</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>GO04</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>TLL</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>CO10</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>CO01</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:40</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:41</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:42</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:44</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:44</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>2020-11-18T05:31:48</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
         <is>
           <t>2020-11-18T05:31:51</t>
         </is>
